--- a/biology/Zoologie/Geai_des_volcans/Geai_des_volcans.xlsx
+++ b/biology/Zoologie/Geai_des_volcans/Geai_des_volcans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphelocoma ultramarina
-Le Geai des volcans[1] (Aphelocoma ultramarina) est une espèce de passereaux de la famille des Corvidae. Cette espèce était auparavant nommée Geai du Mexique par le CINFO, mais ce nom normalisé est désormais attribué à une de ses anciennes sous-espèces : Aphelocoma wollweberi.
+Le Geai des volcans (Aphelocoma ultramarina) est une espèce de passereaux de la famille des Corvidae. Cette espèce était auparavant nommée Geai du Mexique par le CINFO, mais ce nom normalisé est désormais attribué à une de ses anciennes sous-espèces : Aphelocoma wollweberi.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite la forêt de montagne de la cordillère néovolcanique. 
 </t>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, il existe les 7 sous-espèces suivantes :
 Aphelocoma ultramarina arizonae (Ridgway) 1874 ;
@@ -553,7 +569,7 @@
 Aphelocoma ultramarina potosina Nelson 1899 ;
 Aphelocoma ultramarina ultramarina (Bonaparte) 1825 ;
 Aphelocoma ultramarina wollweberi Kaup 1855.
-Toutefois, le Congrès ornithologique international, dans sa classification de référence (version 2.9, 2011), considère la sous-espèce A. u. wollweberi comme une espèce à part entière (Aphelocoma wollweberi), suivant en cela les travaux de McCormack et al 2008[2] et l'Union américaine d'ornithologie.
+Toutefois, le Congrès ornithologique international, dans sa classification de référence (version 2.9, 2011), considère la sous-espèce A. u. wollweberi comme une espèce à part entière (Aphelocoma wollweberi), suivant en cela les travaux de McCormack et al 2008 et l'Union américaine d'ornithologie.
 </t>
         </is>
       </c>
